--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -43,21 +43,15 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -70,184 +64,196 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>sturdy</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>kids</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>tea</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>works</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>wish</t>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>big</t>
@@ -256,13 +262,16 @@
     <t>makes</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>last</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>coffee</t>
@@ -271,28 +280,19 @@
     <t>hot</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>really</t>
+    <t>buy</t>
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>buy</t>
   </si>
   <si>
     <t>use</t>
@@ -656,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,7 +664,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>94</v>
@@ -725,13 +725,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -775,37 +775,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.375</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>93</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>25</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="K4">
-        <v>0.890625</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -825,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3396226415094339</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -843,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5">
         <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -875,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2635658914728682</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -893,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8498452012383901</v>
+        <v>0.8452012383900929</v>
       </c>
       <c r="L6">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="M6">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -925,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2051282051282051</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -943,119 +943,71 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L7">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>24</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="L8">
+        <v>36</v>
+      </c>
+      <c r="M8">
+        <v>36</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K7">
-        <v>0.8405797101449275</v>
-      </c>
-      <c r="L7">
-        <v>58</v>
-      </c>
-      <c r="M7">
-        <v>58</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1919191919191919</v>
-      </c>
-      <c r="C8">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>80</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L8">
-        <v>24</v>
-      </c>
-      <c r="M8">
-        <v>24</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1135135135135135</v>
-      </c>
-      <c r="C9">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>164</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.7402597402597403</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="L9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1067,21 +1019,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.6883116883116883</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L10">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,21 +1045,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.6818181818181818</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1119,21 +1071,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.6610169491525424</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L12">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="M12">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1145,21 +1097,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.6444444444444445</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,21 +1123,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.6438356164383562</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,21 +1149,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.640625</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1223,21 +1175,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6195826645264848</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L16">
-        <v>772</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>772</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1249,21 +1201,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>474</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6114285714285714</v>
+        <v>0.6171428571428571</v>
       </c>
       <c r="L17">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1275,21 +1227,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6029411764705882</v>
+        <v>0.6163723916532905</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>768</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>768</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1301,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6</v>
+        <v>0.609375</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1327,12 +1279,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K20">
         <v>0.5972222222222222</v>
@@ -1358,16 +1310,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5915492957746479</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1379,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5625</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1405,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5384615384615384</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L23">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1431,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5384615384615384</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1457,21 +1409,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5213675213675214</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L25">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1483,21 +1435,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5087719298245614</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1509,21 +1461,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4962406015037594</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L27">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1535,21 +1487,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4939759036144578</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1561,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4850299401197605</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L29">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1587,21 +1539,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4761904761904762</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1613,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.43</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L31">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="M31">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1639,21 +1591,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4098360655737705</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1665,21 +1617,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.3947368421052632</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1691,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.3734939759036144</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="L34">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1717,21 +1669,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>104</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.3676470588235294</v>
+        <v>0.37</v>
       </c>
       <c r="L35">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1743,15 +1695,15 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>258</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.3333333333333333</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="L36">
         <v>17</v>
@@ -1769,21 +1721,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>0.3268482490272374</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="L37">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1795,21 +1747,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>173</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>0.3265306122448979</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1821,21 +1773,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>0.3230769230769231</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1847,21 +1799,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>44</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>0.3061224489795918</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1873,15 +1825,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K41">
-        <v>0.2794117647058824</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L41">
         <v>19</v>
@@ -1899,21 +1851,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>0.2792792792792793</v>
+        <v>0.2996108949416342</v>
       </c>
       <c r="L42">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="M42">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1925,21 +1877,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>80</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K43">
-        <v>0.2781954887218045</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="L43">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1951,21 +1903,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>96</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>0.2726027397260274</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L44">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1977,21 +1929,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>531</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K45">
-        <v>0.2631578947368421</v>
+        <v>0.2808219178082192</v>
       </c>
       <c r="L45">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="M45">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2003,21 +1955,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>154</v>
+        <v>525</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K46">
-        <v>0.25</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="L46">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M46">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2034,16 +1986,16 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K47">
-        <v>0.2469135802469136</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2055,21 +2007,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K48">
-        <v>0.2446043165467626</v>
+        <v>0.2486544671689989</v>
       </c>
       <c r="L48">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="M48">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2081,21 +2033,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>105</v>
+        <v>698</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K49">
-        <v>0.2380952380952381</v>
+        <v>0.2481203007518797</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2107,21 +2059,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K50">
-        <v>0.22497308934338</v>
+        <v>0.223021582733813</v>
       </c>
       <c r="L50">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="M50">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2133,21 +2085,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>720</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K51">
-        <v>0.2105263157894737</v>
+        <v>0.2200956937799043</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2159,12 +2111,12 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>60</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K52">
         <v>0.2079207920792079</v>
@@ -2190,16 +2142,16 @@
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K53">
-        <v>0.2037617554858934</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L53">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="M53">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2211,21 +2163,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>254</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K54">
-        <v>0.174496644295302</v>
+        <v>0.1827814569536424</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2237,21 +2189,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>123</v>
+        <v>617</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K55">
-        <v>0.1721854304635762</v>
+        <v>0.1786833855799373</v>
       </c>
       <c r="L55">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="M55">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2263,47 +2215,47 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>625</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K56">
-        <v>0.1696428571428572</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="L56">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M56">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N56">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K57">
-        <v>0.1560102301790281</v>
+        <v>0.1655629139072848</v>
       </c>
       <c r="L57">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="M57">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2315,21 +2267,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>660</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K58">
-        <v>0.1523809523809524</v>
+        <v>0.1624040920716112</v>
       </c>
       <c r="L58">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="M58">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2341,21 +2293,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>89</v>
+        <v>655</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K59">
-        <v>0.1456953642384106</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M59">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2367,21 +2319,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K60">
-        <v>0.1351351351351351</v>
+        <v>0.139344262295082</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2393,21 +2345,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K61">
-        <v>0.1280487804878049</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="L61">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M61">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2419,21 +2371,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>143</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K62">
-        <v>0.1240875912408759</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="L62">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M62">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2445,21 +2397,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>360</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K63">
-        <v>0.1237113402061856</v>
+        <v>0.1289537712895377</v>
       </c>
       <c r="L63">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M63">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2471,47 +2423,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>255</v>
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K64">
-        <v>0.1153846153846154</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>115</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K65">
-        <v>0.1090909090909091</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="L65">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2523,21 +2475,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K66">
-        <v>0.1070110701107011</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L66">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M66">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2549,38 +2501,38 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K67">
-        <v>0.1054054054054054</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="L67">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="M67">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N67">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>331</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K68">
         <v>0.103448275862069</v>
@@ -2606,16 +2558,16 @@
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K69">
-        <v>0.1016949152542373</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L69">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M69">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2627,21 +2579,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K70">
-        <v>0.09772727272727273</v>
+        <v>0.0959409594095941</v>
       </c>
       <c r="L70">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M70">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2653,21 +2605,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>397</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K71">
-        <v>0.08823529411764706</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="L71">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M71">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2679,21 +2631,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>217</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K72">
-        <v>0.08591885441527446</v>
+        <v>0.08991228070175439</v>
       </c>
       <c r="L72">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M72">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2705,21 +2657,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>383</v>
+        <v>415</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K73">
-        <v>0.08518518518518518</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L73">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M73">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2731,15 +2683,15 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K74">
-        <v>0.07894736842105263</v>
+        <v>0.08591885441527446</v>
       </c>
       <c r="L74">
         <v>36</v>
@@ -2757,47 +2709,47 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>420</v>
+        <v>383</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K75">
-        <v>0.05738880918220947</v>
+        <v>0.075</v>
       </c>
       <c r="L75">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M75">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N75">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>657</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K76">
-        <v>0.05737704918032787</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="L76">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M76">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2809,21 +2761,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>345</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K77">
-        <v>0.04428044280442804</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="L77">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M77">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2835,85 +2787,137 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>518</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K78">
-        <v>0.04295051353874883</v>
+        <v>0.05130597014925373</v>
       </c>
       <c r="L78">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M78">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N78">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>1025</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K79">
-        <v>0.03807106598984772</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="L79">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M79">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>379</v>
+        <v>663</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K80">
+        <v>0.04822335025380711</v>
+      </c>
+      <c r="L80">
+        <v>19</v>
+      </c>
+      <c r="M80">
+        <v>19</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K81">
+        <v>0.03874538745387454</v>
+      </c>
+      <c r="L81">
+        <v>21</v>
+      </c>
+      <c r="M81">
+        <v>21</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K80">
-        <v>0.02076124567474048</v>
-      </c>
-      <c r="L80">
-        <v>24</v>
-      </c>
-      <c r="M80">
-        <v>25</v>
-      </c>
-      <c r="N80">
-        <v>0.96</v>
-      </c>
-      <c r="O80">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P80" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>1132</v>
+      <c r="K82">
+        <v>0.02337662337662338</v>
+      </c>
+      <c r="L82">
+        <v>27</v>
+      </c>
+      <c r="M82">
+        <v>29</v>
+      </c>
+      <c r="N82">
+        <v>0.93</v>
+      </c>
+      <c r="O82">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>1128</v>
       </c>
     </row>
   </sheetData>
